--- a/submissions.xlsx
+++ b/submissions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\umste\Desktop\DMIRML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DA0B5F-FD32-426F-97FF-E5B634FE2B51}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CC2C4C-FD71-424F-A63E-5EF7DAC38B4B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{1AA1386A-5DE4-4BD6-A9D4-CDCA140AEDA5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>ebt_6: 24.9663</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>ref2</t>
+  </si>
+  <si>
+    <t>ref3</t>
   </si>
 </sst>
 </file>
@@ -126,6 +129,36 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1418,7 +1451,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BC0B-4E17-893C-B506C30280A8}"/>
+              <c16:uniqueId val="{00000000-EE62-4CC9-8999-F9CF2E2C3516}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1427,11 +1460,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$1</c:f>
+              <c:f>Sheet1!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ref2</c:v>
+                  <c:v>ref1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1450,6 +1483,1296 @@
           </c:marker>
           <c:val>
             <c:numRef>
+              <c:f>Sheet1!$J$2:$J$417</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="416"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EE62-4CC9-8999-F9CF2E2C3516}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ref2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
               <c:f>Sheet1!$K$2:$K$417</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -2708,7 +4031,1297 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BC0B-4E17-893C-B506C30280A8}"/>
+              <c16:uniqueId val="{00000002-EE62-4CC9-8999-F9CF2E2C3516}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ref3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$2:$L$417</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="416"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EE62-4CC9-8999-F9CF2E2C3516}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2721,11 +5334,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="760442495"/>
-        <c:axId val="819261327"/>
+        <c:axId val="891422239"/>
+        <c:axId val="742507647"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="760442495"/>
+        <c:axId val="891422239"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2767,7 +5380,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="819261327"/>
+        <c:crossAx val="742507647"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2775,7 +5388,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="819261327"/>
+        <c:axId val="742507647"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2826,7 +5439,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="760442495"/>
+        <c:crossAx val="891422239"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3474,22 +6087,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>90486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>439738</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88070A0F-2824-4EE1-BE99-423AD41656D0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C503C97-F206-4C21-954F-114DD20CB0F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3807,10 +6420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408171E3-1338-4802-BE8A-1D2998EA42AD}">
-  <dimension ref="A1:K417"/>
+  <dimension ref="A1:L417"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3824,7 +6437,7 @@
     <col min="8" max="8" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -3858,8 +6471,11 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>8</v>
       </c>
@@ -3894,8 +6510,11 @@
       <c r="K2">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>8</v>
       </c>
@@ -3930,8 +6549,11 @@
       <c r="K3">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>8</v>
       </c>
@@ -3966,8 +6588,11 @@
       <c r="K4">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>9</v>
       </c>
@@ -4002,8 +6627,11 @@
       <c r="K5">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>9</v>
       </c>
@@ -4038,8 +6666,11 @@
       <c r="K6">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>9</v>
       </c>
@@ -4074,8 +6705,11 @@
       <c r="K7">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>9</v>
       </c>
@@ -4110,8 +6744,11 @@
       <c r="K8">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>11</v>
       </c>
@@ -4146,8 +6783,11 @@
       <c r="K9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>11</v>
       </c>
@@ -4182,8 +6822,11 @@
       <c r="K10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4218,8 +6861,11 @@
       <c r="K11">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -4254,8 +6900,11 @@
       <c r="K12">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>15</v>
       </c>
@@ -4290,8 +6939,11 @@
       <c r="K13">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>18</v>
       </c>
@@ -4326,8 +6978,11 @@
       <c r="K14">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>20</v>
       </c>
@@ -4362,8 +7017,11 @@
       <c r="K15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>31</v>
       </c>
@@ -4398,8 +7056,11 @@
       <c r="K16">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>57</v>
       </c>
@@ -4434,8 +7095,11 @@
       <c r="K17">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>34</v>
       </c>
@@ -4470,8 +7134,11 @@
       <c r="K18">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>68</v>
       </c>
@@ -4506,8 +7173,11 @@
       <c r="K19">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>70</v>
       </c>
@@ -4542,8 +7212,11 @@
       <c r="K20">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>86</v>
       </c>
@@ -4578,8 +7251,11 @@
       <c r="K21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>70</v>
       </c>
@@ -4614,8 +7290,11 @@
       <c r="K22">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>39</v>
       </c>
@@ -4650,8 +7329,11 @@
       <c r="K23">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>45</v>
       </c>
@@ -4686,8 +7368,11 @@
       <c r="K24">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>46</v>
       </c>
@@ -4722,8 +7407,11 @@
       <c r="K25">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>41</v>
       </c>
@@ -4758,8 +7446,11 @@
       <c r="K26">
         <v>30</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>38</v>
       </c>
@@ -4794,8 +7485,11 @@
       <c r="K27">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>37</v>
       </c>
@@ -4830,8 +7524,11 @@
       <c r="K28">
         <v>32</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>36</v>
       </c>
@@ -4866,8 +7563,11 @@
       <c r="K29">
         <v>32</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>40</v>
       </c>
@@ -4902,8 +7602,11 @@
       <c r="K30">
         <v>31</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>37</v>
       </c>
@@ -4938,8 +7641,11 @@
       <c r="K31">
         <v>31</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>37</v>
       </c>
@@ -4974,8 +7680,11 @@
       <c r="K32">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>27</v>
       </c>
@@ -5010,8 +7719,11 @@
       <c r="K33">
         <v>28</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>26</v>
       </c>
@@ -5046,8 +7758,11 @@
       <c r="K34">
         <v>28</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>22</v>
       </c>
@@ -5082,8 +7797,11 @@
       <c r="K35">
         <v>24</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>23</v>
       </c>
@@ -5118,8 +7836,11 @@
       <c r="K36">
         <v>24</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>14</v>
       </c>
@@ -5154,8 +7875,11 @@
       <c r="K37">
         <v>24</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L37">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>14</v>
       </c>
@@ -5190,8 +7914,11 @@
       <c r="K38">
         <v>24</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L38">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>14</v>
       </c>
@@ -5226,8 +7953,11 @@
       <c r="K39">
         <v>21</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L39">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>14</v>
       </c>
@@ -5262,8 +7992,11 @@
       <c r="K40">
         <v>20</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L40">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>13</v>
       </c>
@@ -5298,8 +8031,11 @@
       <c r="K41">
         <v>20</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L41">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>11</v>
       </c>
@@ -5334,8 +8070,11 @@
       <c r="K42">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L42">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>11</v>
       </c>
@@ -5370,8 +8109,11 @@
       <c r="K43">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>11</v>
       </c>
@@ -5406,8 +8148,11 @@
       <c r="K44">
         <v>15</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L44">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>10</v>
       </c>
@@ -5442,8 +8187,11 @@
       <c r="K45">
         <v>15</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>9</v>
       </c>
@@ -5478,8 +8226,11 @@
       <c r="K46">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>8</v>
       </c>
@@ -5514,8 +8265,11 @@
       <c r="K47">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>8</v>
       </c>
@@ -5550,8 +8304,11 @@
       <c r="K48">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>8</v>
       </c>
@@ -5586,8 +8343,11 @@
       <c r="K49">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>8</v>
       </c>
@@ -5622,8 +8382,11 @@
       <c r="K50">
         <v>10</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L50">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>8</v>
       </c>
@@ -5658,8 +8421,11 @@
       <c r="K51">
         <v>10</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L51">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>8</v>
       </c>
@@ -5694,8 +8460,11 @@
       <c r="K52">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L52">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>8</v>
       </c>
@@ -5730,8 +8499,11 @@
       <c r="K53">
         <v>10</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L53">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>8</v>
       </c>
@@ -5766,8 +8538,11 @@
       <c r="K54">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L54">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>8</v>
       </c>
@@ -5802,8 +8577,11 @@
       <c r="K55">
         <v>10</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L55">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>8</v>
       </c>
@@ -5838,8 +8616,11 @@
       <c r="K56">
         <v>7</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L56">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>8</v>
       </c>
@@ -5874,8 +8655,11 @@
       <c r="K57">
         <v>7</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L57">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>9</v>
       </c>
@@ -5910,8 +8694,11 @@
       <c r="K58">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>9</v>
       </c>
@@ -5946,8 +8733,11 @@
       <c r="K59">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L59">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>9</v>
       </c>
@@ -5982,8 +8772,11 @@
       <c r="K60">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L60">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>9</v>
       </c>
@@ -6018,8 +8811,11 @@
       <c r="K61">
         <v>8</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L61">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>9</v>
       </c>
@@ -6054,8 +8850,11 @@
       <c r="K62">
         <v>7</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L62">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>15</v>
       </c>
@@ -6090,8 +8889,11 @@
       <c r="K63">
         <v>5</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L63">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>27</v>
       </c>
@@ -6126,8 +8928,11 @@
       <c r="K64">
         <v>6</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L64">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>24</v>
       </c>
@@ -6162,8 +8967,11 @@
       <c r="K65">
         <v>14</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L65">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>29</v>
       </c>
@@ -6198,8 +9006,11 @@
       <c r="K66">
         <v>21</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L66">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>28</v>
       </c>
@@ -6234,8 +9045,11 @@
       <c r="K67">
         <v>77</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L67">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>39</v>
       </c>
@@ -6270,8 +9084,11 @@
       <c r="K68">
         <v>49</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L68">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>26</v>
       </c>
@@ -6306,8 +9123,11 @@
       <c r="K69">
         <v>52</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L69">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>35</v>
       </c>
@@ -6342,8 +9162,11 @@
       <c r="K70">
         <v>64</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L70">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>71</v>
       </c>
@@ -6378,8 +9201,11 @@
       <c r="K71">
         <v>93</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L71">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -6414,8 +9240,11 @@
       <c r="K72">
         <v>87</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L72">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>35</v>
       </c>
@@ -6450,8 +9279,11 @@
       <c r="K73">
         <v>103</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L73">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>41</v>
       </c>
@@ -6486,8 +9318,11 @@
       <c r="K74">
         <v>98</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L74">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>37</v>
       </c>
@@ -6522,8 +9357,11 @@
       <c r="K75">
         <v>100</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L75">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>76</v>
       </c>
@@ -6558,8 +9396,11 @@
       <c r="K76">
         <v>80</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L76">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>68</v>
       </c>
@@ -6594,8 +9435,11 @@
       <c r="K77">
         <v>66</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L77">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>74</v>
       </c>
@@ -6630,8 +9474,11 @@
       <c r="K78">
         <v>61</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L78">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>74</v>
       </c>
@@ -6666,8 +9513,11 @@
       <c r="K79">
         <v>42</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L79">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>43</v>
       </c>
@@ -6702,8 +9552,11 @@
       <c r="K80">
         <v>42</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L80">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>43</v>
       </c>
@@ -6738,8 +9591,11 @@
       <c r="K81">
         <v>44</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L81">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>35</v>
       </c>
@@ -6774,8 +9630,11 @@
       <c r="K82">
         <v>42</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L82">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>52</v>
       </c>
@@ -6810,8 +9669,11 @@
       <c r="K83">
         <v>40</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L83">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>41</v>
       </c>
@@ -6846,8 +9708,11 @@
       <c r="K84">
         <v>47</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L84">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>40</v>
       </c>
@@ -6882,8 +9747,11 @@
       <c r="K85">
         <v>41</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L85">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>35</v>
       </c>
@@ -6918,8 +9786,11 @@
       <c r="K86">
         <v>41</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L86">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>37</v>
       </c>
@@ -6954,8 +9825,11 @@
       <c r="K87">
         <v>31</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L87">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>39</v>
       </c>
@@ -6990,8 +9864,11 @@
       <c r="K88">
         <v>31</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L88">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>41</v>
       </c>
@@ -7026,8 +9903,11 @@
       <c r="K89">
         <v>31</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L89">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>14</v>
       </c>
@@ -7062,8 +9942,11 @@
       <c r="K90">
         <v>20</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L90">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>14</v>
       </c>
@@ -7098,8 +9981,11 @@
       <c r="K91">
         <v>23</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L91">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>14</v>
       </c>
@@ -7134,8 +10020,11 @@
       <c r="K92">
         <v>27</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L92">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>14</v>
       </c>
@@ -7170,8 +10059,11 @@
       <c r="K93">
         <v>25</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L93">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>13</v>
       </c>
@@ -7206,8 +10098,11 @@
       <c r="K94">
         <v>24</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L94">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>11</v>
       </c>
@@ -7242,8 +10137,11 @@
       <c r="K95">
         <v>22</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L95">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>11</v>
       </c>
@@ -7278,8 +10176,11 @@
       <c r="K96">
         <v>19</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L96">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>11</v>
       </c>
@@ -7314,8 +10215,11 @@
       <c r="K97">
         <v>17</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L97">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>11</v>
       </c>
@@ -7350,8 +10254,11 @@
       <c r="K98">
         <v>19</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L98">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>9</v>
       </c>
@@ -7386,8 +10293,11 @@
       <c r="K99">
         <v>18</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L99">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>8</v>
       </c>
@@ -7422,8 +10332,11 @@
       <c r="K100">
         <v>15</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L100">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>8</v>
       </c>
@@ -7458,8 +10371,11 @@
       <c r="K101">
         <v>15</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L101">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>9</v>
       </c>
@@ -7494,8 +10410,11 @@
       <c r="K102">
         <v>15</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L102">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>8</v>
       </c>
@@ -7530,8 +10449,11 @@
       <c r="K103">
         <v>13</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L103">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>8</v>
       </c>
@@ -7566,8 +10488,11 @@
       <c r="K104">
         <v>13</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L104">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>8</v>
       </c>
@@ -7602,8 +10527,11 @@
       <c r="K105">
         <v>13</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L105">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>9</v>
       </c>
@@ -7638,8 +10566,11 @@
       <c r="K106">
         <v>13</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L106">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>11</v>
       </c>
@@ -7674,8 +10605,11 @@
       <c r="K107">
         <v>13</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L107">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>9</v>
       </c>
@@ -7710,8 +10644,11 @@
       <c r="K108">
         <v>13</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L108">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>9</v>
       </c>
@@ -7746,8 +10683,11 @@
       <c r="K109">
         <v>13</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L109">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>11</v>
       </c>
@@ -7782,8 +10722,11 @@
       <c r="K110">
         <v>17</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L110">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>19</v>
       </c>
@@ -7818,8 +10761,11 @@
       <c r="K111">
         <v>17</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L111">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>32</v>
       </c>
@@ -7854,8 +10800,11 @@
       <c r="K112">
         <v>17</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L112">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>32</v>
       </c>
@@ -7890,8 +10839,11 @@
       <c r="K113">
         <v>19</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L113">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>11</v>
       </c>
@@ -7926,8 +10878,11 @@
       <c r="K114">
         <v>23</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L114">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>15</v>
       </c>
@@ -7962,8 +10917,11 @@
       <c r="K115">
         <v>23</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L115">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>49</v>
       </c>
@@ -7998,8 +10956,11 @@
       <c r="K116">
         <v>22</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L116">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>51</v>
       </c>
@@ -8034,8 +10995,11 @@
       <c r="K117">
         <v>22</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L117">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>20</v>
       </c>
@@ -8070,8 +11034,11 @@
       <c r="K118">
         <v>25</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L118">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>19</v>
       </c>
@@ -8106,8 +11073,11 @@
       <c r="K119">
         <v>31</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L119">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>42</v>
       </c>
@@ -8142,8 +11112,11 @@
       <c r="K120">
         <v>42</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L120">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>89</v>
       </c>
@@ -8178,8 +11151,11 @@
       <c r="K121">
         <v>34</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L121">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>73</v>
       </c>
@@ -8214,8 +11190,11 @@
       <c r="K122">
         <v>43</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L122">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>79</v>
       </c>
@@ -8250,8 +11229,11 @@
       <c r="K123">
         <v>55</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L123">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>77</v>
       </c>
@@ -8286,8 +11268,11 @@
       <c r="K124">
         <v>78</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L124">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>77</v>
       </c>
@@ -8322,8 +11307,11 @@
       <c r="K125">
         <v>93</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L125">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>73</v>
       </c>
@@ -8358,8 +11346,11 @@
       <c r="K126">
         <v>88</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L126">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>68</v>
       </c>
@@ -8394,8 +11385,11 @@
       <c r="K127">
         <v>89</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L127">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>42</v>
       </c>
@@ -8430,8 +11424,11 @@
       <c r="K128">
         <v>79</v>
       </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L128">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>57</v>
       </c>
@@ -8466,8 +11463,11 @@
       <c r="K129">
         <v>67</v>
       </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L129">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>96</v>
       </c>
@@ -8502,8 +11502,11 @@
       <c r="K130">
         <v>78</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L130">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>46</v>
       </c>
@@ -8538,8 +11541,11 @@
       <c r="K131">
         <v>74</v>
       </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L131">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>43</v>
       </c>
@@ -8574,8 +11580,11 @@
       <c r="K132">
         <v>55</v>
       </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L132">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>41</v>
       </c>
@@ -8610,8 +11619,11 @@
       <c r="K133">
         <v>55</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L133">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>43</v>
       </c>
@@ -8646,8 +11658,11 @@
       <c r="K134">
         <v>50</v>
       </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L134">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>29</v>
       </c>
@@ -8682,8 +11697,11 @@
       <c r="K135">
         <v>40</v>
       </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L135">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>26</v>
       </c>
@@ -8718,8 +11736,11 @@
       <c r="K136">
         <v>30</v>
       </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L136">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>26</v>
       </c>
@@ -8754,8 +11775,11 @@
       <c r="K137">
         <v>35</v>
       </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L137">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>28</v>
       </c>
@@ -8790,8 +11814,11 @@
       <c r="K138">
         <v>35</v>
       </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L138">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>29</v>
       </c>
@@ -8826,8 +11853,11 @@
       <c r="K139">
         <v>35</v>
       </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L139">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>26</v>
       </c>
@@ -8862,8 +11892,11 @@
       <c r="K140">
         <v>34</v>
       </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L140">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>24</v>
       </c>
@@ -8898,8 +11931,11 @@
       <c r="K141">
         <v>49</v>
       </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L141">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>14</v>
       </c>
@@ -8934,8 +11970,11 @@
       <c r="K142">
         <v>32</v>
       </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L142">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>14</v>
       </c>
@@ -8970,8 +12009,11 @@
       <c r="K143">
         <v>26</v>
       </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L143">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>14</v>
       </c>
@@ -9006,8 +12048,11 @@
       <c r="K144">
         <v>18</v>
       </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L144">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>14</v>
       </c>
@@ -9042,8 +12087,11 @@
       <c r="K145">
         <v>39</v>
       </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L145">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>13</v>
       </c>
@@ -9078,8 +12126,11 @@
       <c r="K146">
         <v>20</v>
       </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L146">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>11</v>
       </c>
@@ -9114,8 +12165,11 @@
       <c r="K147">
         <v>15</v>
       </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L147">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>11</v>
       </c>
@@ -9150,8 +12204,11 @@
       <c r="K148">
         <v>15</v>
       </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L148">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>11</v>
       </c>
@@ -9186,8 +12243,11 @@
       <c r="K149">
         <v>15</v>
       </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L149">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>10</v>
       </c>
@@ -9222,8 +12282,11 @@
       <c r="K150">
         <v>14</v>
       </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L150">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>9</v>
       </c>
@@ -9258,8 +12321,11 @@
       <c r="K151">
         <v>11</v>
       </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L151">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>8</v>
       </c>
@@ -9294,8 +12360,11 @@
       <c r="K152">
         <v>10</v>
       </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L152">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>8</v>
       </c>
@@ -9330,8 +12399,11 @@
       <c r="K153">
         <v>10</v>
       </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L153">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>8</v>
       </c>
@@ -9366,8 +12438,11 @@
       <c r="K154">
         <v>8</v>
       </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L154">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>8</v>
       </c>
@@ -9402,8 +12477,11 @@
       <c r="K155">
         <v>8</v>
       </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L155">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>8</v>
       </c>
@@ -9438,8 +12516,11 @@
       <c r="K156">
         <v>8</v>
       </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L156">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>8</v>
       </c>
@@ -9474,8 +12555,11 @@
       <c r="K157">
         <v>8</v>
       </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L157">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>8</v>
       </c>
@@ -9510,8 +12594,11 @@
       <c r="K158">
         <v>8</v>
       </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L158">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>8</v>
       </c>
@@ -9546,8 +12633,11 @@
       <c r="K159">
         <v>8</v>
       </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L159">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>8</v>
       </c>
@@ -9582,8 +12672,11 @@
       <c r="K160">
         <v>8</v>
       </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L160">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>9</v>
       </c>
@@ -9618,8 +12711,11 @@
       <c r="K161">
         <v>7</v>
       </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L161">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>9</v>
       </c>
@@ -9654,8 +12750,11 @@
       <c r="K162">
         <v>7</v>
       </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L162">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>9</v>
       </c>
@@ -9690,8 +12789,11 @@
       <c r="K163">
         <v>8</v>
       </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L163">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>9</v>
       </c>
@@ -9726,8 +12828,11 @@
       <c r="K164">
         <v>9</v>
       </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L164">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>17</v>
       </c>
@@ -9762,8 +12867,11 @@
       <c r="K165">
         <v>9</v>
       </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L165">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>32</v>
       </c>
@@ -9798,8 +12906,11 @@
       <c r="K166">
         <v>9</v>
       </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L166">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>20</v>
       </c>
@@ -9834,8 +12945,11 @@
       <c r="K167">
         <v>9</v>
       </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L167">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>11</v>
       </c>
@@ -9870,8 +12984,11 @@
       <c r="K168">
         <v>9</v>
       </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L168">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>15</v>
       </c>
@@ -9906,8 +13023,11 @@
       <c r="K169">
         <v>10</v>
       </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L169">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>17</v>
       </c>
@@ -9942,8 +13062,11 @@
       <c r="K170">
         <v>10</v>
       </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L170">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>25</v>
       </c>
@@ -9978,8 +13101,11 @@
       <c r="K171">
         <v>12</v>
       </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L171">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>22</v>
       </c>
@@ -10014,8 +13140,11 @@
       <c r="K172">
         <v>18</v>
       </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L172">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>26</v>
       </c>
@@ -10050,8 +13179,11 @@
       <c r="K173">
         <v>20</v>
       </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L173">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>56</v>
       </c>
@@ -10086,8 +13218,11 @@
       <c r="K174">
         <v>28</v>
       </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L174">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>34</v>
       </c>
@@ -10122,8 +13257,11 @@
       <c r="K175">
         <v>28</v>
       </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L175">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>29</v>
       </c>
@@ -10158,8 +13296,11 @@
       <c r="K176">
         <v>30</v>
       </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L176">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>48</v>
       </c>
@@ -10194,8 +13335,11 @@
       <c r="K177">
         <v>31</v>
       </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L177">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>67</v>
       </c>
@@ -10230,8 +13374,11 @@
       <c r="K178">
         <v>31</v>
       </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L178">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>31</v>
       </c>
@@ -10266,8 +13413,11 @@
       <c r="K179">
         <v>30</v>
       </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L179">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>35</v>
       </c>
@@ -10302,8 +13452,11 @@
       <c r="K180">
         <v>30</v>
       </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L180">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>79</v>
       </c>
@@ -10338,8 +13491,11 @@
       <c r="K181">
         <v>30</v>
       </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L181">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>47</v>
       </c>
@@ -10374,8 +13530,11 @@
       <c r="K182">
         <v>30</v>
       </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L182">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>40</v>
       </c>
@@ -10410,8 +13569,11 @@
       <c r="K183">
         <v>30</v>
       </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L183">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>35</v>
       </c>
@@ -10446,8 +13608,11 @@
       <c r="K184">
         <v>30</v>
       </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L184">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>44</v>
       </c>
@@ -10482,8 +13647,11 @@
       <c r="K185">
         <v>32</v>
       </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L185">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>39</v>
       </c>
@@ -10518,8 +13686,11 @@
       <c r="K186">
         <v>31</v>
       </c>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L186">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>35</v>
       </c>
@@ -10554,8 +13725,11 @@
       <c r="K187">
         <v>31</v>
       </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L187">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>35</v>
       </c>
@@ -10590,8 +13764,11 @@
       <c r="K188">
         <v>31</v>
       </c>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L188">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>35</v>
       </c>
@@ -10626,8 +13803,11 @@
       <c r="K189">
         <v>28</v>
       </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L189">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>28</v>
       </c>
@@ -10662,8 +13842,11 @@
       <c r="K190">
         <v>28</v>
       </c>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L190">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>29</v>
       </c>
@@ -10698,8 +13881,11 @@
       <c r="K191">
         <v>24</v>
       </c>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L191">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>26</v>
       </c>
@@ -10734,8 +13920,11 @@
       <c r="K192">
         <v>24</v>
       </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L192">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>24</v>
       </c>
@@ -10770,8 +13959,11 @@
       <c r="K193">
         <v>27</v>
       </c>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L193">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>14</v>
       </c>
@@ -10806,8 +13998,11 @@
       <c r="K194">
         <v>24</v>
       </c>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L194">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>14</v>
       </c>
@@ -10842,8 +14037,11 @@
       <c r="K195">
         <v>21</v>
       </c>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L195">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>14</v>
       </c>
@@ -10878,8 +14076,11 @@
       <c r="K196">
         <v>21</v>
       </c>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L196">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>14</v>
       </c>
@@ -10914,8 +14115,11 @@
       <c r="K197">
         <v>20</v>
       </c>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L197">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>13</v>
       </c>
@@ -10950,8 +14154,11 @@
       <c r="K198">
         <v>20</v>
       </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L198">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>11</v>
       </c>
@@ -10986,8 +14193,11 @@
       <c r="K199">
         <v>13</v>
       </c>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L199">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>11</v>
       </c>
@@ -11022,8 +14232,11 @@
       <c r="K200">
         <v>12</v>
       </c>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L200">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>11</v>
       </c>
@@ -11058,8 +14271,11 @@
       <c r="K201">
         <v>12</v>
       </c>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L201">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>10</v>
       </c>
@@ -11094,8 +14310,11 @@
       <c r="K202">
         <v>11</v>
       </c>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L202">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>9</v>
       </c>
@@ -11130,8 +14349,11 @@
       <c r="K203">
         <v>8</v>
       </c>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L203">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>8</v>
       </c>
@@ -11166,8 +14388,11 @@
       <c r="K204">
         <v>8</v>
       </c>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L204">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>8</v>
       </c>
@@ -11202,8 +14427,11 @@
       <c r="K205">
         <v>7</v>
       </c>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L205">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>8</v>
       </c>
@@ -11238,8 +14466,11 @@
       <c r="K206">
         <v>7</v>
       </c>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L206">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>8</v>
       </c>
@@ -11274,8 +14505,11 @@
       <c r="K207">
         <v>7</v>
       </c>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L207">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>8</v>
       </c>
@@ -11310,8 +14544,11 @@
       <c r="K208">
         <v>7</v>
       </c>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L208">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>8</v>
       </c>
@@ -11346,8 +14583,11 @@
       <c r="K209">
         <v>7</v>
       </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L209">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>8</v>
       </c>
@@ -11382,8 +14622,11 @@
       <c r="K210">
         <v>6</v>
       </c>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L210">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>9</v>
       </c>
@@ -11418,8 +14661,11 @@
       <c r="K211">
         <v>5</v>
       </c>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L211">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>8</v>
       </c>
@@ -11454,8 +14700,11 @@
       <c r="K212">
         <v>5</v>
       </c>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L212">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>9</v>
       </c>
@@ -11490,8 +14739,11 @@
       <c r="K213">
         <v>10</v>
       </c>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L213">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>8</v>
       </c>
@@ -11526,8 +14778,11 @@
       <c r="K214">
         <v>13</v>
       </c>
-    </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L214">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>9</v>
       </c>
@@ -11562,8 +14817,11 @@
       <c r="K215">
         <v>25</v>
       </c>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L215">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>15</v>
       </c>
@@ -11598,8 +14856,11 @@
       <c r="K216">
         <v>17</v>
       </c>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L216">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>15</v>
       </c>
@@ -11634,8 +14895,11 @@
       <c r="K217">
         <v>14</v>
       </c>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L217">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>25</v>
       </c>
@@ -11670,8 +14934,11 @@
       <c r="K218">
         <v>16</v>
       </c>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L218">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>35</v>
       </c>
@@ -11706,8 +14973,11 @@
       <c r="K219">
         <v>16</v>
       </c>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L219">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>22</v>
       </c>
@@ -11742,8 +15012,11 @@
       <c r="K220">
         <v>18</v>
       </c>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L220">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>16</v>
       </c>
@@ -11778,8 +15051,11 @@
       <c r="K221">
         <v>53</v>
       </c>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L221">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>19</v>
       </c>
@@ -11814,8 +15090,11 @@
       <c r="K222">
         <v>57</v>
       </c>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L222">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>17</v>
       </c>
@@ -11850,8 +15129,11 @@
       <c r="K223">
         <v>94</v>
       </c>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L223">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>24</v>
       </c>
@@ -11886,8 +15168,11 @@
       <c r="K224">
         <v>98</v>
       </c>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L224">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>24</v>
       </c>
@@ -11922,8 +15207,11 @@
       <c r="K225">
         <v>98</v>
       </c>
-    </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L225">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>57</v>
       </c>
@@ -11958,8 +15246,11 @@
       <c r="K226">
         <v>102</v>
       </c>
-    </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L226">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>71</v>
       </c>
@@ -11994,8 +15285,11 @@
       <c r="K227">
         <v>101</v>
       </c>
-    </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L227">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>36</v>
       </c>
@@ -12030,8 +15324,11 @@
       <c r="K228">
         <v>78</v>
       </c>
-    </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L228">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>38</v>
       </c>
@@ -12066,8 +15363,11 @@
       <c r="K229">
         <v>65</v>
       </c>
-    </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L229">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>71</v>
       </c>
@@ -12102,8 +15402,11 @@
       <c r="K230">
         <v>54</v>
       </c>
-    </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L230">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>71</v>
       </c>
@@ -12138,8 +15441,11 @@
       <c r="K231">
         <v>55</v>
       </c>
-    </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L231">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>65</v>
       </c>
@@ -12174,8 +15480,11 @@
       <c r="K232">
         <v>43</v>
       </c>
-    </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L232">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>76</v>
       </c>
@@ -12210,8 +15519,11 @@
       <c r="K233">
         <v>43</v>
       </c>
-    </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L233">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>44</v>
       </c>
@@ -12246,8 +15558,11 @@
       <c r="K234">
         <v>43</v>
       </c>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L234">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>49</v>
       </c>
@@ -12282,8 +15597,11 @@
       <c r="K235">
         <v>43</v>
       </c>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L235">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>44</v>
       </c>
@@ -12318,8 +15636,11 @@
       <c r="K236">
         <v>42</v>
       </c>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L236">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>79</v>
       </c>
@@ -12354,8 +15675,11 @@
       <c r="K237">
         <v>42</v>
       </c>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L237">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>42</v>
       </c>
@@ -12390,8 +15714,11 @@
       <c r="K238">
         <v>40</v>
       </c>
-    </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L238">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>42</v>
       </c>
@@ -12426,8 +15753,11 @@
       <c r="K239">
         <v>40</v>
       </c>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L239">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>44</v>
       </c>
@@ -12462,8 +15792,11 @@
       <c r="K240">
         <v>40</v>
       </c>
-    </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L240">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>35</v>
       </c>
@@ -12498,8 +15831,11 @@
       <c r="K241">
         <v>38</v>
       </c>
-    </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L241">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>35</v>
       </c>
@@ -12534,8 +15870,11 @@
       <c r="K242">
         <v>38</v>
       </c>
-    </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L242">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>22</v>
       </c>
@@ -12570,8 +15909,11 @@
       <c r="K243">
         <v>34</v>
       </c>
-    </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L243">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>21</v>
       </c>
@@ -12606,8 +15948,11 @@
       <c r="K244">
         <v>32</v>
       </c>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L244">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>14</v>
       </c>
@@ -12642,8 +15987,11 @@
       <c r="K245">
         <v>33</v>
       </c>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L245">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>14</v>
       </c>
@@ -12678,8 +16026,11 @@
       <c r="K246">
         <v>28</v>
       </c>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L246">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>14</v>
       </c>
@@ -12714,8 +16065,11 @@
       <c r="K247">
         <v>20</v>
       </c>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L247">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>14</v>
       </c>
@@ -12750,8 +16104,11 @@
       <c r="K248">
         <v>25</v>
       </c>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L248">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>13</v>
       </c>
@@ -12786,8 +16143,11 @@
       <c r="K249">
         <v>25</v>
       </c>
-    </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L249">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>11</v>
       </c>
@@ -12822,8 +16182,11 @@
       <c r="K250">
         <v>21</v>
       </c>
-    </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L250">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>11</v>
       </c>
@@ -12858,8 +16221,11 @@
       <c r="K251">
         <v>19</v>
       </c>
-    </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L251">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>11</v>
       </c>
@@ -12894,8 +16260,11 @@
       <c r="K252">
         <v>17</v>
       </c>
-    </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L252">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>10</v>
       </c>
@@ -12930,8 +16299,11 @@
       <c r="K253">
         <v>14</v>
       </c>
-    </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L253">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>9</v>
       </c>
@@ -12966,8 +16338,11 @@
       <c r="K254">
         <v>16</v>
       </c>
-    </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L254">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>8</v>
       </c>
@@ -13002,8 +16377,11 @@
       <c r="K255">
         <v>15</v>
       </c>
-    </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L255">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>8</v>
       </c>
@@ -13038,8 +16416,11 @@
       <c r="K256">
         <v>13</v>
       </c>
-    </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L256">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>8</v>
       </c>
@@ -13074,8 +16455,11 @@
       <c r="K257">
         <v>13</v>
       </c>
-    </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L257">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>8</v>
       </c>
@@ -13110,8 +16494,11 @@
       <c r="K258">
         <v>13</v>
       </c>
-    </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L258">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>8</v>
       </c>
@@ -13146,8 +16533,11 @@
       <c r="K259">
         <v>13</v>
       </c>
-    </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L259">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>8</v>
       </c>
@@ -13182,8 +16572,11 @@
       <c r="K260">
         <v>13</v>
       </c>
-    </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L260">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>8</v>
       </c>
@@ -13218,8 +16611,11 @@
       <c r="K261">
         <v>13</v>
       </c>
-    </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L261">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>4</v>
       </c>
@@ -13254,8 +16650,11 @@
       <c r="K262">
         <v>3</v>
       </c>
-    </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L262">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>3</v>
       </c>
@@ -13290,8 +16689,11 @@
       <c r="K263">
         <v>6</v>
       </c>
-    </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L263">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>4</v>
       </c>
@@ -13326,8 +16728,11 @@
       <c r="K264">
         <v>3</v>
       </c>
-    </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L264">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>3</v>
       </c>
@@ -13362,8 +16767,11 @@
       <c r="K265">
         <v>3</v>
       </c>
-    </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L265">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>3</v>
       </c>
@@ -13398,8 +16806,11 @@
       <c r="K266">
         <v>3</v>
       </c>
-    </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L266">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>4</v>
       </c>
@@ -13434,8 +16845,11 @@
       <c r="K267">
         <v>3</v>
       </c>
-    </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L267">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>3</v>
       </c>
@@ -13470,8 +16884,11 @@
       <c r="K268">
         <v>3</v>
       </c>
-    </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L268">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>3</v>
       </c>
@@ -13506,8 +16923,11 @@
       <c r="K269">
         <v>3</v>
       </c>
-    </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L269">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>4</v>
       </c>
@@ -13542,8 +16962,11 @@
       <c r="K270">
         <v>4</v>
       </c>
-    </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L270">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>4</v>
       </c>
@@ -13578,8 +17001,11 @@
       <c r="K271">
         <v>4</v>
       </c>
-    </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L271">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>4</v>
       </c>
@@ -13614,8 +17040,11 @@
       <c r="K272">
         <v>3</v>
       </c>
-    </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L272">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>4</v>
       </c>
@@ -13650,8 +17079,11 @@
       <c r="K273">
         <v>6</v>
       </c>
-    </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L273">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>6</v>
       </c>
@@ -13686,8 +17118,11 @@
       <c r="K274">
         <v>5</v>
       </c>
-    </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L274">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>3</v>
       </c>
@@ -13722,8 +17157,11 @@
       <c r="K275">
         <v>6</v>
       </c>
-    </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L275">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>9</v>
       </c>
@@ -13758,8 +17196,11 @@
       <c r="K276">
         <v>6</v>
       </c>
-    </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L276">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>6</v>
       </c>
@@ -13794,8 +17235,11 @@
       <c r="K277">
         <v>8</v>
       </c>
-    </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L277">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>11</v>
       </c>
@@ -13830,8 +17274,11 @@
       <c r="K278">
         <v>7</v>
       </c>
-    </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L278">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>8</v>
       </c>
@@ -13866,8 +17313,11 @@
       <c r="K279">
         <v>8</v>
       </c>
-    </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L279">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>7</v>
       </c>
@@ -13902,8 +17352,11 @@
       <c r="K280">
         <v>8</v>
       </c>
-    </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L280">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>10</v>
       </c>
@@ -13938,8 +17391,11 @@
       <c r="K281">
         <v>8</v>
       </c>
-    </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L281">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>11</v>
       </c>
@@ -13974,8 +17430,11 @@
       <c r="K282">
         <v>8</v>
       </c>
-    </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L282">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>9</v>
       </c>
@@ -14010,8 +17469,11 @@
       <c r="K283">
         <v>7</v>
       </c>
-    </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L283">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>6</v>
       </c>
@@ -14046,8 +17508,11 @@
       <c r="K284">
         <v>10</v>
       </c>
-    </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L284">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>7</v>
       </c>
@@ -14082,8 +17547,11 @@
       <c r="K285">
         <v>10</v>
       </c>
-    </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L285">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>7</v>
       </c>
@@ -14118,8 +17586,11 @@
       <c r="K286">
         <v>7</v>
       </c>
-    </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L286">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>10</v>
       </c>
@@ -14154,8 +17625,11 @@
       <c r="K287">
         <v>7</v>
       </c>
-    </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>11</v>
       </c>
@@ -14190,8 +17664,11 @@
       <c r="K288">
         <v>6</v>
       </c>
-    </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L288">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>12</v>
       </c>
@@ -14226,8 +17703,11 @@
       <c r="K289">
         <v>10</v>
       </c>
-    </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L289">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>13</v>
       </c>
@@ -14262,8 +17742,11 @@
       <c r="K290">
         <v>12</v>
       </c>
-    </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L290">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>16</v>
       </c>
@@ -14298,8 +17781,11 @@
       <c r="K291">
         <v>10</v>
       </c>
-    </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L291">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>15</v>
       </c>
@@ -14334,8 +17820,11 @@
       <c r="K292">
         <v>11</v>
       </c>
-    </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L292">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>13</v>
       </c>
@@ -14370,8 +17859,11 @@
       <c r="K293">
         <v>13</v>
       </c>
-    </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L293">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>17</v>
       </c>
@@ -14406,8 +17898,11 @@
       <c r="K294">
         <v>12</v>
       </c>
-    </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L294">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>15</v>
       </c>
@@ -14442,8 +17937,11 @@
       <c r="K295">
         <v>10</v>
       </c>
-    </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L295">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>15</v>
       </c>
@@ -14478,8 +17976,11 @@
       <c r="K296">
         <v>13</v>
       </c>
-    </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L296">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>14</v>
       </c>
@@ -14514,8 +18015,11 @@
       <c r="K297">
         <v>13</v>
       </c>
-    </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L297">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>8</v>
       </c>
@@ -14550,8 +18054,11 @@
       <c r="K298">
         <v>11</v>
       </c>
-    </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L298">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>7</v>
       </c>
@@ -14586,8 +18093,11 @@
       <c r="K299">
         <v>11</v>
       </c>
-    </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L299">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>6</v>
       </c>
@@ -14622,8 +18132,11 @@
       <c r="K300">
         <v>9</v>
       </c>
-    </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L300">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>6</v>
       </c>
@@ -14658,8 +18171,11 @@
       <c r="K301">
         <v>8</v>
       </c>
-    </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L301">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>6</v>
       </c>
@@ -14694,8 +18210,11 @@
       <c r="K302">
         <v>6</v>
       </c>
-    </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L302">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>4</v>
       </c>
@@ -14730,8 +18249,11 @@
       <c r="K303">
         <v>2</v>
       </c>
-    </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L303">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>6</v>
       </c>
@@ -14766,8 +18288,11 @@
       <c r="K304">
         <v>3</v>
       </c>
-    </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L304">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>6</v>
       </c>
@@ -14802,8 +18327,11 @@
       <c r="K305">
         <v>2</v>
       </c>
-    </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L305">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>7</v>
       </c>
@@ -14838,8 +18366,11 @@
       <c r="K306">
         <v>3</v>
       </c>
-    </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L306">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>6</v>
       </c>
@@ -14874,8 +18405,11 @@
       <c r="K307">
         <v>3</v>
       </c>
-    </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L307">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>4</v>
       </c>
@@ -14910,8 +18444,11 @@
       <c r="K308">
         <v>2</v>
       </c>
-    </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L308">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>5</v>
       </c>
@@ -14946,8 +18483,11 @@
       <c r="K309">
         <v>2</v>
       </c>
-    </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L309">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>5</v>
       </c>
@@ -14982,8 +18522,11 @@
       <c r="K310">
         <v>2</v>
       </c>
-    </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L310">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>4</v>
       </c>
@@ -15018,8 +18561,11 @@
       <c r="K311">
         <v>2</v>
       </c>
-    </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L311">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>4</v>
       </c>
@@ -15054,8 +18600,11 @@
       <c r="K312">
         <v>2</v>
       </c>
-    </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L312">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>3</v>
       </c>
@@ -15090,8 +18639,11 @@
       <c r="K313">
         <v>5</v>
       </c>
-    </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L313">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>3</v>
       </c>
@@ -15126,8 +18678,11 @@
       <c r="K314">
         <v>5</v>
       </c>
-    </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L314">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>3</v>
       </c>
@@ -15162,8 +18717,11 @@
       <c r="K315">
         <v>6</v>
       </c>
-    </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L315">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>3</v>
       </c>
@@ -15198,8 +18756,11 @@
       <c r="K316">
         <v>4</v>
       </c>
-    </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L316">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>3</v>
       </c>
@@ -15234,8 +18795,11 @@
       <c r="K317">
         <v>4</v>
       </c>
-    </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L317">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>3</v>
       </c>
@@ -15270,8 +18834,11 @@
       <c r="K318">
         <v>4</v>
       </c>
-    </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L318">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>4</v>
       </c>
@@ -15306,8 +18873,11 @@
       <c r="K319">
         <v>4</v>
       </c>
-    </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L319">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>3</v>
       </c>
@@ -15342,8 +18912,11 @@
       <c r="K320">
         <v>4</v>
       </c>
-    </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L320">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>3</v>
       </c>
@@ -15378,8 +18951,11 @@
       <c r="K321">
         <v>4</v>
       </c>
-    </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L321">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>3</v>
       </c>
@@ -15414,8 +18990,11 @@
       <c r="K322">
         <v>4</v>
       </c>
-    </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L322">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>3</v>
       </c>
@@ -15450,8 +19029,11 @@
       <c r="K323">
         <v>4</v>
       </c>
-    </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L323">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>2</v>
       </c>
@@ -15486,8 +19068,11 @@
       <c r="K324">
         <v>4</v>
       </c>
-    </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L324">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>4</v>
       </c>
@@ -15522,8 +19107,11 @@
       <c r="K325">
         <v>4</v>
       </c>
-    </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L325">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>9</v>
       </c>
@@ -15558,8 +19146,11 @@
       <c r="K326">
         <v>5</v>
       </c>
-    </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L326">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>6</v>
       </c>
@@ -15594,8 +19185,11 @@
       <c r="K327">
         <v>13</v>
       </c>
-    </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L327">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>8</v>
       </c>
@@ -15630,8 +19224,11 @@
       <c r="K328">
         <v>8</v>
       </c>
-    </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L328">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>7</v>
       </c>
@@ -15666,8 +19263,11 @@
       <c r="K329">
         <v>15</v>
       </c>
-    </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L329">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>6</v>
       </c>
@@ -15702,8 +19302,11 @@
       <c r="K330">
         <v>13</v>
       </c>
-    </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L330">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>13</v>
       </c>
@@ -15738,8 +19341,11 @@
       <c r="K331">
         <v>13</v>
       </c>
-    </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L331">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>7</v>
       </c>
@@ -15774,8 +19380,11 @@
       <c r="K332">
         <v>16</v>
       </c>
-    </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L332">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>9</v>
       </c>
@@ -15810,8 +19419,11 @@
       <c r="K333">
         <v>14</v>
       </c>
-    </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L333">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>12</v>
       </c>
@@ -15846,8 +19458,11 @@
       <c r="K334">
         <v>15</v>
       </c>
-    </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L334">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>7</v>
       </c>
@@ -15882,8 +19497,11 @@
       <c r="K335">
         <v>9</v>
       </c>
-    </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L335">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>8</v>
       </c>
@@ -15918,8 +19536,11 @@
       <c r="K336">
         <v>31</v>
       </c>
-    </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L336">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>18</v>
       </c>
@@ -15954,8 +19575,11 @@
       <c r="K337">
         <v>34</v>
       </c>
-    </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L337">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>21</v>
       </c>
@@ -15990,8 +19614,11 @@
       <c r="K338">
         <v>20</v>
       </c>
-    </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L338">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>20</v>
       </c>
@@ -16026,8 +19653,11 @@
       <c r="K339">
         <v>16</v>
       </c>
-    </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L339">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>9</v>
       </c>
@@ -16062,8 +19692,11 @@
       <c r="K340">
         <v>12</v>
       </c>
-    </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L340">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>17</v>
       </c>
@@ -16098,8 +19731,11 @@
       <c r="K341">
         <v>44</v>
       </c>
-    </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L341">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>19</v>
       </c>
@@ -16134,8 +19770,11 @@
       <c r="K342">
         <v>35</v>
       </c>
-    </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L342">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>16</v>
       </c>
@@ -16170,8 +19809,11 @@
       <c r="K343">
         <v>35</v>
       </c>
-    </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L343">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>14</v>
       </c>
@@ -16206,8 +19848,11 @@
       <c r="K344">
         <v>35</v>
       </c>
-    </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L344">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>18</v>
       </c>
@@ -16242,8 +19887,11 @@
       <c r="K345">
         <v>33</v>
       </c>
-    </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L345">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>18</v>
       </c>
@@ -16278,8 +19926,11 @@
       <c r="K346">
         <v>32</v>
       </c>
-    </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L346">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>19</v>
       </c>
@@ -16314,8 +19965,11 @@
       <c r="K347">
         <v>30</v>
       </c>
-    </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L347">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>16</v>
       </c>
@@ -16350,8 +20004,11 @@
       <c r="K348">
         <v>25</v>
       </c>
-    </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L348">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>15</v>
       </c>
@@ -16386,8 +20043,11 @@
       <c r="K349">
         <v>23</v>
       </c>
-    </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L349">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>7</v>
       </c>
@@ -16422,8 +20082,11 @@
       <c r="K350">
         <v>18</v>
       </c>
-    </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L350">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>4</v>
       </c>
@@ -16458,8 +20121,11 @@
       <c r="K351">
         <v>16</v>
       </c>
-    </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L351">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>5</v>
       </c>
@@ -16494,8 +20160,11 @@
       <c r="K352">
         <v>14</v>
       </c>
-    </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L352">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>7</v>
       </c>
@@ -16530,8 +20199,11 @@
       <c r="K353">
         <v>17</v>
       </c>
-    </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L353">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>3</v>
       </c>
@@ -16566,8 +20238,11 @@
       <c r="K354">
         <v>14</v>
       </c>
-    </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L354">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>5</v>
       </c>
@@ -16602,8 +20277,11 @@
       <c r="K355">
         <v>10</v>
       </c>
-    </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L355">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>5</v>
       </c>
@@ -16638,8 +20316,11 @@
       <c r="K356">
         <v>11</v>
       </c>
-    </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L356">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>12</v>
       </c>
@@ -16674,8 +20355,11 @@
       <c r="K357">
         <v>10</v>
       </c>
-    </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L357">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>5</v>
       </c>
@@ -16710,8 +20394,11 @@
       <c r="K358">
         <v>11</v>
       </c>
-    </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L358">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>3</v>
       </c>
@@ -16746,8 +20433,11 @@
       <c r="K359">
         <v>10</v>
       </c>
-    </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L359">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>7</v>
       </c>
@@ -16782,8 +20472,11 @@
       <c r="K360">
         <v>9</v>
       </c>
-    </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L360">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>6</v>
       </c>
@@ -16818,8 +20511,11 @@
       <c r="K361">
         <v>10</v>
       </c>
-    </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L361">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>3</v>
       </c>
@@ -16854,8 +20550,11 @@
       <c r="K362">
         <v>9</v>
       </c>
-    </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L362">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>5</v>
       </c>
@@ -16890,8 +20589,11 @@
       <c r="K363">
         <v>9</v>
       </c>
-    </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L363">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>3</v>
       </c>
@@ -16926,8 +20628,11 @@
       <c r="K364">
         <v>9</v>
       </c>
-    </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L364">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>2</v>
       </c>
@@ -16962,8 +20667,11 @@
       <c r="K365">
         <v>9</v>
       </c>
-    </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L365">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>6</v>
       </c>
@@ -16998,8 +20706,11 @@
       <c r="K366">
         <v>9</v>
       </c>
-    </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L366">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>2</v>
       </c>
@@ -17034,8 +20745,11 @@
       <c r="K367">
         <v>16</v>
       </c>
-    </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L367">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>3</v>
       </c>
@@ -17070,8 +20784,11 @@
       <c r="K368">
         <v>9</v>
       </c>
-    </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L368">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>4</v>
       </c>
@@ -17106,8 +20823,11 @@
       <c r="K369">
         <v>9</v>
       </c>
-    </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L369">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>4</v>
       </c>
@@ -17142,8 +20862,11 @@
       <c r="K370">
         <v>9</v>
       </c>
-    </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L370">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>2</v>
       </c>
@@ -17178,8 +20901,11 @@
       <c r="K371">
         <v>9</v>
       </c>
-    </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L371">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>5</v>
       </c>
@@ -17214,8 +20940,11 @@
       <c r="K372">
         <v>9</v>
       </c>
-    </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L372">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>7</v>
       </c>
@@ -17250,8 +20979,11 @@
       <c r="K373">
         <v>9</v>
       </c>
-    </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L373">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>5</v>
       </c>
@@ -17286,8 +21018,11 @@
       <c r="K374">
         <v>9</v>
       </c>
-    </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L374">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>3</v>
       </c>
@@ -17322,8 +21057,11 @@
       <c r="K375">
         <v>10</v>
       </c>
-    </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L375">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>3</v>
       </c>
@@ -17358,8 +21096,11 @@
       <c r="K376">
         <v>9</v>
       </c>
-    </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L376">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>2</v>
       </c>
@@ -17394,8 +21135,11 @@
       <c r="K377">
         <v>5</v>
       </c>
-    </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L377">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>3</v>
       </c>
@@ -17430,8 +21174,11 @@
       <c r="K378">
         <v>5</v>
       </c>
-    </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L378">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>5</v>
       </c>
@@ -17466,8 +21213,11 @@
       <c r="K379">
         <v>4</v>
       </c>
-    </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L379">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>5</v>
       </c>
@@ -17502,8 +21252,11 @@
       <c r="K380">
         <v>5</v>
       </c>
-    </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L380">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>7</v>
       </c>
@@ -17538,8 +21291,11 @@
       <c r="K381">
         <v>6</v>
       </c>
-    </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L381">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>9</v>
       </c>
@@ -17574,8 +21330,11 @@
       <c r="K382">
         <v>5</v>
       </c>
-    </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L382">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>9</v>
       </c>
@@ -17610,8 +21369,11 @@
       <c r="K383">
         <v>6</v>
       </c>
-    </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L383">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>8</v>
       </c>
@@ -17646,8 +21408,11 @@
       <c r="K384">
         <v>6</v>
       </c>
-    </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L384">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>8</v>
       </c>
@@ -17682,8 +21447,11 @@
       <c r="K385">
         <v>6</v>
       </c>
-    </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L385">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>7</v>
       </c>
@@ -17718,8 +21486,11 @@
       <c r="K386">
         <v>6</v>
       </c>
-    </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L386">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>7</v>
       </c>
@@ -17754,8 +21525,11 @@
       <c r="K387">
         <v>6</v>
       </c>
-    </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L387">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>8</v>
       </c>
@@ -17790,8 +21564,11 @@
       <c r="K388">
         <v>10</v>
       </c>
-    </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L388">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>6</v>
       </c>
@@ -17826,8 +21603,11 @@
       <c r="K389">
         <v>13</v>
       </c>
-    </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L389">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>7</v>
       </c>
@@ -17862,8 +21642,11 @@
       <c r="K390">
         <v>6</v>
       </c>
-    </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L390">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>5</v>
       </c>
@@ -17898,8 +21681,11 @@
       <c r="K391">
         <v>5</v>
       </c>
-    </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L391">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>16</v>
       </c>
@@ -17934,8 +21720,11 @@
       <c r="K392">
         <v>12</v>
       </c>
-    </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L392">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>17</v>
       </c>
@@ -17970,8 +21759,11 @@
       <c r="K393">
         <v>12</v>
       </c>
-    </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L393">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>17</v>
       </c>
@@ -18006,8 +21798,11 @@
       <c r="K394">
         <v>11</v>
       </c>
-    </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L394">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>16</v>
       </c>
@@ -18042,8 +21837,11 @@
       <c r="K395">
         <v>9</v>
       </c>
-    </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L395">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>17</v>
       </c>
@@ -18078,8 +21876,11 @@
       <c r="K396">
         <v>8</v>
       </c>
-    </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L396">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>18</v>
       </c>
@@ -18114,8 +21915,11 @@
       <c r="K397">
         <v>8</v>
       </c>
-    </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L397">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>15</v>
       </c>
@@ -18150,8 +21954,11 @@
       <c r="K398">
         <v>8</v>
       </c>
-    </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L398">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>14</v>
       </c>
@@ -18186,8 +21993,11 @@
       <c r="K399">
         <v>8</v>
       </c>
-    </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L399">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>15</v>
       </c>
@@ -18222,8 +22032,11 @@
       <c r="K400">
         <v>8</v>
       </c>
-    </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L400">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>9</v>
       </c>
@@ -18258,8 +22071,11 @@
       <c r="K401">
         <v>8</v>
       </c>
-    </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>9</v>
       </c>
@@ -18294,8 +22110,11 @@
       <c r="K402">
         <v>8</v>
       </c>
-    </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L402">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="403" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>11</v>
       </c>
@@ -18330,8 +22149,11 @@
       <c r="K403">
         <v>7</v>
       </c>
-    </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L403">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>7</v>
       </c>
@@ -18366,8 +22188,11 @@
       <c r="K404">
         <v>7</v>
       </c>
-    </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L404">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>6</v>
       </c>
@@ -18402,8 +22227,11 @@
       <c r="K405">
         <v>8</v>
       </c>
-    </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L405">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="406" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>4</v>
       </c>
@@ -18438,8 +22266,11 @@
       <c r="K406">
         <v>7</v>
       </c>
-    </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L406">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="407" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>7</v>
       </c>
@@ -18474,8 +22305,11 @@
       <c r="K407">
         <v>6</v>
       </c>
-    </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L407">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>4</v>
       </c>
@@ -18510,8 +22344,11 @@
       <c r="K408">
         <v>7</v>
       </c>
-    </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L408">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>3</v>
       </c>
@@ -18546,8 +22383,11 @@
       <c r="K409">
         <v>5</v>
       </c>
-    </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L409">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>4</v>
       </c>
@@ -18582,8 +22422,11 @@
       <c r="K410">
         <v>6</v>
       </c>
-    </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L410">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="411" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>6</v>
       </c>
@@ -18618,8 +22461,11 @@
       <c r="K411">
         <v>6</v>
       </c>
-    </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L411">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="412" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>6</v>
       </c>
@@ -18654,8 +22500,11 @@
       <c r="K412">
         <v>4</v>
       </c>
-    </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L412">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>8</v>
       </c>
@@ -18690,8 +22539,11 @@
       <c r="K413">
         <v>5</v>
       </c>
-    </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L413">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>3</v>
       </c>
@@ -18726,8 +22578,11 @@
       <c r="K414">
         <v>4</v>
       </c>
-    </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>2</v>
       </c>
@@ -18762,8 +22617,11 @@
       <c r="K415">
         <v>4</v>
       </c>
-    </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>2</v>
       </c>
@@ -18798,8 +22656,11 @@
       <c r="K416">
         <v>4</v>
       </c>
-    </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L416">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>3</v>
       </c>
@@ -18833,6 +22694,9 @@
       </c>
       <c r="K417">
         <v>4</v>
+      </c>
+      <c r="L417">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
